--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1979102.13818045</v>
+        <v>-1981772.133735411</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>341.0177238311813</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>368.2650522827601</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522098</v>
+        <v>243.0665760168009</v>
       </c>
       <c r="G11" t="n">
         <v>397.2564078639518</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978188</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342428</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867416</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>190.2526523501185</v>
@@ -1427,16 +1427,16 @@
         <v>237.3298541694003</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806332</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>356.0657828889674</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.2958608423214</v>
+        <v>372.5726208665519</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>166.1666623924356</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091262</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>131.7557302334296</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248191</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033642</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054566</v>
+        <v>68.57169974954192</v>
       </c>
       <c r="S13" t="n">
         <v>176.1037075419402</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>205.8836314866675</v>
       </c>
       <c r="U13" t="n">
         <v>272.5465204161112</v>
       </c>
       <c r="V13" t="n">
-        <v>210.3915545257302</v>
+        <v>238.4723255343263</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.8576805470893</v>
       </c>
       <c r="X13" t="n">
         <v>212.0443375995355</v>
@@ -1616,13 +1616,13 @@
         <v>368.2650522827601</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522098</v>
+        <v>362.0042147589562</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.2564078639518</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978188</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867416</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.3209327937728</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694003</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>314.0869406806332</v>
@@ -1670,7 +1670,7 @@
         <v>335.5756509279113</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889674</v>
       </c>
       <c r="Y14" t="n">
         <v>372.5726208665519</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924356</v>
+        <v>160.1375603700422</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091262</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.89732035320556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0896971248191</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033642</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>272.8576805470893</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.0443375995355</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625931</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>304.6324373629133</v>
       </c>
       <c r="D17" t="n">
-        <v>255.2312787783306</v>
+        <v>294.0425872125887</v>
       </c>
       <c r="E17" t="n">
         <v>321.2899156641676</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008161</v>
+        <v>48.54730738008158</v>
       </c>
       <c r="T17" t="n">
         <v>143.2775157315259</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508077</v>
+        <v>151.5434091165493</v>
       </c>
       <c r="V17" t="n">
         <v>267.1118040620407</v>
@@ -2005,22 +2005,22 @@
         <v>106.6063666905336</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011813</v>
+        <v>87.97501861011811</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847494</v>
+        <v>85.79350823847493</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483702</v>
+        <v>84.780593614837</v>
       </c>
       <c r="G19" t="n">
         <v>105.385353850934</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622655</v>
+        <v>84.11456050622654</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174387</v>
+        <v>35.71196600174385</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.2916982619531</v>
+        <v>28.29169826195309</v>
       </c>
       <c r="S19" t="n">
         <v>129.1285709233477</v>
@@ -2084,7 +2084,7 @@
         <v>304.6324373629133</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125887</v>
+        <v>255.2312787783302</v>
       </c>
       <c r="E20" t="n">
         <v>321.2899156641676</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008161</v>
+        <v>48.54730738008158</v>
       </c>
       <c r="T20" t="n">
         <v>143.2775157315259</v>
@@ -2144,7 +2144,7 @@
         <v>288.6005143093188</v>
       </c>
       <c r="X20" t="n">
-        <v>270.2793378361153</v>
+        <v>309.0906462703748</v>
       </c>
       <c r="Y20" t="n">
         <v>325.5974842479594</v>
@@ -2242,22 +2242,22 @@
         <v>106.6063666905336</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011813</v>
+        <v>87.97501861011811</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847494</v>
+        <v>85.79350823847493</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483702</v>
+        <v>84.780593614837</v>
       </c>
       <c r="G22" t="n">
         <v>105.385353850934</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622655</v>
+        <v>84.11456050622654</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174387</v>
+        <v>35.71196600174385</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.2916982619531</v>
+        <v>28.29169826195309</v>
       </c>
       <c r="S22" t="n">
         <v>129.1285709233477</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008161</v>
+        <v>48.54730738008159</v>
       </c>
       <c r="T23" t="n">
         <v>143.2775157315259</v>
@@ -2479,22 +2479,22 @@
         <v>106.6063666905336</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011813</v>
+        <v>87.97501861011811</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847494</v>
+        <v>85.79350823847493</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483702</v>
+        <v>84.780593614837</v>
       </c>
       <c r="G25" t="n">
         <v>105.385353850934</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622655</v>
+        <v>84.11456050622654</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174387</v>
+        <v>35.71196600174385</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.2916982619531</v>
+        <v>28.29169826195309</v>
       </c>
       <c r="S25" t="n">
         <v>129.1285709233477</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800362</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1876.559078260559</v>
+        <v>1784.90942347885</v>
       </c>
       <c r="C11" t="n">
-        <v>1521.399912622674</v>
+        <v>1429.750257840966</v>
       </c>
       <c r="D11" t="n">
-        <v>1176.937565318451</v>
+        <v>1085.287910536742</v>
       </c>
       <c r="E11" t="n">
-        <v>1176.937565318451</v>
+        <v>713.3030092410247</v>
       </c>
       <c r="F11" t="n">
-        <v>779.7550118313701</v>
+        <v>467.78121528466</v>
       </c>
       <c r="G11" t="n">
-        <v>378.4859129788936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>94.70566389018775</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438794</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.944108125544</v>
+        <v>3133.43142529592</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.216982701907</v>
+        <v>2893.704299872283</v>
       </c>
       <c r="V11" t="n">
-        <v>2479.957446660862</v>
+        <v>2893.704299872283</v>
       </c>
       <c r="W11" t="n">
-        <v>2479.957446660862</v>
+        <v>2893.704299872283</v>
       </c>
       <c r="X11" t="n">
-        <v>2479.957446660862</v>
+        <v>2534.04189291373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2249.355567022154</v>
+        <v>2157.705912240445</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.708694614562</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686094</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>846.0716871064769</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986319</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291645</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>704.777447891556</v>
+        <v>199.5987126275668</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6446162661761</v>
+        <v>199.5987126275668</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6446162661761</v>
+        <v>199.5987126275668</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5348739863099</v>
+        <v>199.5987126275668</v>
       </c>
       <c r="F13" t="n">
-        <v>282.4482777909265</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>282.4482777909265</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0344423113112</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>125.1634134907256</v>
@@ -5203,7 +5203,7 @@
         <v>342.6792610512086</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113115</v>
+        <v>672.7677241113114</v>
       </c>
       <c r="M13" t="n">
         <v>1030.453434322467</v>
@@ -5212,37 +5212,37 @@
         <v>1385.390475639938</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171958</v>
+        <v>1698.248739171959</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217224</v>
+        <v>1944.384904217225</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981345</v>
+        <v>2035.523864981346</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.4967590414</v>
+        <v>1966.25952179999</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.614226170754</v>
+        <v>1788.376988929343</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.614226170754</v>
+        <v>1580.413724801396</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.314710598924</v>
+        <v>1305.114209229567</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.797988855762</v>
+        <v>1064.233072326207</v>
       </c>
       <c r="W13" t="n">
-        <v>1293.797988855762</v>
+        <v>788.6192535917731</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.611789260272</v>
+        <v>574.4330539962828</v>
       </c>
       <c r="Y13" t="n">
-        <v>872.6225614192688</v>
+        <v>367.4438261552796</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1474.618985941572</v>
+        <v>1560.586105207107</v>
       </c>
       <c r="C14" t="n">
-        <v>1119.459820303687</v>
+        <v>1205.426939569222</v>
       </c>
       <c r="D14" t="n">
-        <v>1119.459820303687</v>
+        <v>1205.426939569222</v>
       </c>
       <c r="E14" t="n">
-        <v>747.4749190079699</v>
+        <v>833.4420382735045</v>
       </c>
       <c r="F14" t="n">
-        <v>350.2923655208892</v>
+        <v>467.7812152846599</v>
       </c>
       <c r="G14" t="n">
-        <v>350.2923655208892</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438793</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.703420808719</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2879.976295385082</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.716759344039</v>
+        <v>3008.346285568127</v>
       </c>
       <c r="W14" t="n">
-        <v>2223.751455376452</v>
+        <v>2669.38098160054</v>
       </c>
       <c r="X14" t="n">
-        <v>2223.751455376452</v>
+        <v>2309.718574641987</v>
       </c>
       <c r="Y14" t="n">
-        <v>1847.415474703167</v>
+        <v>1933.382593968702</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.0113773054711</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="C16" t="n">
-        <v>458.8785456800911</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="D16" t="n">
-        <v>458.8785456800911</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="E16" t="n">
-        <v>324.768803400225</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="F16" t="n">
-        <v>324.768803400225</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="G16" t="n">
-        <v>282.4482777909264</v>
+        <v>198.9259519117987</v>
       </c>
       <c r="H16" t="n">
-        <v>150.0344423113111</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5440,7 +5440,7 @@
         <v>342.6792610512086</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113114</v>
+        <v>672.7677241113112</v>
       </c>
       <c r="M16" t="n">
         <v>1030.453434322467</v>
@@ -5473,13 +5473,13 @@
         <v>1057.470309567617</v>
       </c>
       <c r="W16" t="n">
-        <v>781.8564908331839</v>
+        <v>781.8564908331834</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8564908331839</v>
+        <v>567.6702912376929</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.8564908331839</v>
+        <v>360.6810633966898</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1906.34021016261</v>
+        <v>1945.543552015396</v>
       </c>
       <c r="C17" t="n">
-        <v>1598.630677472798</v>
+        <v>1637.834019325584</v>
       </c>
       <c r="D17" t="n">
         <v>1340.821304969434</v>
@@ -5501,16 +5501,16 @@
         <v>1016.28603662179</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827827</v>
+        <v>666.5531160827828</v>
       </c>
       <c r="G17" t="n">
         <v>312.7336501783796</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774705</v>
+        <v>76.40303403774703</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774705</v>
+        <v>76.40303403774703</v>
       </c>
       <c r="J17" t="n">
         <v>265.2821649967725</v>
@@ -5531,34 +5531,34 @@
         <v>3045.374586090267</v>
       </c>
       <c r="P17" t="n">
-        <v>3512.848273574868</v>
+        <v>3440.148952447445</v>
       </c>
       <c r="Q17" t="n">
-        <v>3761.13463533055</v>
+        <v>3696.075379656297</v>
       </c>
       <c r="R17" t="n">
         <v>3820.151701887352</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665048</v>
+        <v>3771.114017665047</v>
       </c>
       <c r="T17" t="n">
         <v>3626.38925429987</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824307</v>
+        <v>3473.315103677092</v>
       </c>
       <c r="V17" t="n">
-        <v>3164.301858731336</v>
+        <v>3203.505200584122</v>
       </c>
       <c r="W17" t="n">
-        <v>2872.786187711823</v>
+        <v>2911.989529564608</v>
       </c>
       <c r="X17" t="n">
-        <v>2560.573413701343</v>
+        <v>2599.776755554129</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976132</v>
+        <v>2270.890407828917</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>95.41032563620908</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774705</v>
+        <v>76.40303403774703</v>
       </c>
       <c r="J18" t="n">
         <v>170.0803035283644</v>
@@ -5656,37 +5656,37 @@
         <v>476.1868544541272</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223344</v>
+        <v>389.5267451223343</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750243</v>
+        <v>303.8897818750242</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003435</v>
+        <v>197.4399295003434</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688015</v>
+        <v>112.4757269688014</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774705</v>
+        <v>76.40303403774703</v>
       </c>
       <c r="J19" t="n">
         <v>121.5256664846826</v>
       </c>
       <c r="K19" t="n">
-        <v>356.634210884354</v>
+        <v>325.512849433559</v>
       </c>
       <c r="L19" t="n">
-        <v>673.1940093328501</v>
+        <v>642.0726478820551</v>
       </c>
       <c r="M19" t="n">
-        <v>1017.351054932399</v>
+        <v>986.229693481604</v>
       </c>
       <c r="N19" t="n">
-        <v>1418.793481502277</v>
+        <v>1327.638070187469</v>
       </c>
       <c r="O19" t="n">
-        <v>1718.12308042269</v>
+        <v>1658.089030558677</v>
       </c>
       <c r="P19" t="n">
         <v>1950.73058085635</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.543552015396</v>
+        <v>1906.340210162609</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325584</v>
+        <v>1598.630677472798</v>
       </c>
       <c r="D20" t="n">
         <v>1340.821304969434</v>
@@ -5738,7 +5738,7 @@
         <v>1016.28603662179</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827829</v>
+        <v>666.5531160827827</v>
       </c>
       <c r="G20" t="n">
         <v>312.7336501783796</v>
@@ -5753,19 +5753,19 @@
         <v>265.2821649967725</v>
       </c>
       <c r="K20" t="n">
-        <v>599.1015386866191</v>
+        <v>920.005497132072</v>
       </c>
       <c r="L20" t="n">
-        <v>1050.135751935028</v>
+        <v>1371.039710380481</v>
       </c>
       <c r="M20" t="n">
-        <v>1669.613890121232</v>
+        <v>1904.571615052405</v>
       </c>
       <c r="N20" t="n">
-        <v>2615.101436338352</v>
+        <v>2451.350432111188</v>
       </c>
       <c r="O20" t="n">
-        <v>3118.073907217689</v>
+        <v>2954.322902990525</v>
       </c>
       <c r="P20" t="n">
         <v>3512.848273574867</v>
@@ -5780,7 +5780,7 @@
         <v>3771.114017665047</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.38925429987</v>
+        <v>3626.389254299869</v>
       </c>
       <c r="U20" t="n">
         <v>3434.111761824306</v>
@@ -5792,10 +5792,10 @@
         <v>2872.786187711822</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554129</v>
+        <v>2560.573413701342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828917</v>
+        <v>2231.687065976131</v>
       </c>
     </row>
     <row r="21">
@@ -5911,16 +5911,16 @@
         <v>121.5256664846826</v>
       </c>
       <c r="K22" t="n">
-        <v>385.5468992975723</v>
+        <v>356.6342108843538</v>
       </c>
       <c r="L22" t="n">
-        <v>702.1066977460684</v>
+        <v>673.1940093328499</v>
       </c>
       <c r="M22" t="n">
-        <v>1077.385104796412</v>
+        <v>1017.351054932399</v>
       </c>
       <c r="N22" t="n">
-        <v>1478.82753136629</v>
+        <v>1418.793481502277</v>
       </c>
       <c r="O22" t="n">
         <v>1778.157130286704</v>
@@ -5966,16 +5966,16 @@
         <v>1946.343620216473</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526661</v>
+        <v>1638.634087526662</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170511</v>
+        <v>1341.621373170512</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822867</v>
+        <v>1017.086104822868</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838597</v>
+        <v>667.3531842838606</v>
       </c>
       <c r="G23" t="n">
         <v>313.5337183794569</v>
@@ -5987,52 +5987,52 @@
         <v>77.20310223882433</v>
       </c>
       <c r="J23" t="n">
-        <v>433.4878822182028</v>
+        <v>266.0822331978497</v>
       </c>
       <c r="K23" t="n">
-        <v>848.5088149855419</v>
+        <v>599.9016068876963</v>
       </c>
       <c r="L23" t="n">
-        <v>1299.543028233951</v>
+        <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>1833.074932905875</v>
+        <v>2006.324210341556</v>
       </c>
       <c r="N23" t="n">
-        <v>2379.853749964658</v>
+        <v>2553.103027400339</v>
       </c>
       <c r="O23" t="n">
-        <v>2882.826220843995</v>
+        <v>3056.075498279676</v>
       </c>
       <c r="P23" t="n">
-        <v>3277.600587201173</v>
+        <v>3450.849864636854</v>
       </c>
       <c r="Q23" t="n">
         <v>3736.078789710161</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941216</v>
+        <v>3860.155111941217</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718911</v>
+        <v>3811.117427718912</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353733</v>
+        <v>3666.392664353734</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.11517187817</v>
+        <v>3474.115171878171</v>
       </c>
       <c r="V23" t="n">
         <v>3204.3052687852</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765685</v>
+        <v>2912.789597765686</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755206</v>
+        <v>2600.576823755207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029994</v>
+        <v>2271.690476029995</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>77.20310223882433</v>
       </c>
       <c r="J24" t="n">
-        <v>170.8803717294417</v>
+        <v>170.8803717294416</v>
       </c>
       <c r="K24" t="n">
         <v>409.1445707097888</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224542</v>
+        <v>775.8427310224541</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
@@ -6145,22 +6145,22 @@
         <v>77.20310223882433</v>
       </c>
       <c r="J25" t="n">
-        <v>182.3597845497732</v>
+        <v>122.3257346857599</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3469674986495</v>
+        <v>326.3129176346363</v>
       </c>
       <c r="L25" t="n">
-        <v>702.9067659471457</v>
+        <v>642.8727160831324</v>
       </c>
       <c r="M25" t="n">
-        <v>1047.063811546695</v>
+        <v>987.0297616826815</v>
       </c>
       <c r="N25" t="n">
-        <v>1419.593549703354</v>
+        <v>1328.438138388546</v>
       </c>
       <c r="O25" t="n">
-        <v>1718.923148623767</v>
+        <v>1658.889098759754</v>
       </c>
       <c r="P25" t="n">
         <v>1951.530649057427</v>
@@ -6206,16 +6206,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,37 +6224,37 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O26" t="n">
-        <v>3182.560655874485</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
@@ -6306,10 +6306,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
@@ -6385,13 +6385,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>822.9179334642245</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1273.952146712633</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,31 +6698,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058811</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6731,10 +6731,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N35" t="n">
-        <v>2323.523017442385</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O35" t="n">
-        <v>2826.495488321721</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,22 +7093,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
         <v>2189.856749167329</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7178,19 +7178,19 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1273.952146712635</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1807.484051384559</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611206</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490543</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603403</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7439,22 +7439,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7625,7 +7625,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,7 +7634,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,25 +7649,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524677</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647469</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
@@ -7810,10 +7810,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>416.1168096416113</v>
+        <v>416.1168096416112</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>73.43365770446729</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.717237831484255</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>86.8143772871515</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>402.7360900589266</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.4050547749135</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.02177684595216</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>426.1176621550774</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>37.3157205228537</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>122.1718867553221</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>174.4519134245555</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>52.18875040233365</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.0017854473905</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>167.7369666428356</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>21.1383958559137</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>12.68816924374491</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>221.2853655744088</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>124.5185911550058</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>167.7369666428369</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827601</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>150.1441519354088</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.9424465978188</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342417</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.52244399867418</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806332</v>
       </c>
       <c r="W11" t="n">
         <v>335.5756509279113</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889674</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.2767600242305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.5815033091262</v>
       </c>
       <c r="D13" t="n">
         <v>134.9501552287107</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>152.3604904695266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248191</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.68710262033643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.695135131003752</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866675</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>28.08077100859608</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470893</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>31.20651319325359</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639518</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.9424465978188</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342427</v>
+        <v>27.91161198342429</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.52244399867416</v>
       </c>
       <c r="T14" t="n">
-        <v>81.93171955634571</v>
+        <v>190.2526523501185</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889674</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.02910202239347</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>153.5815033091262</v>
       </c>
       <c r="D16" t="n">
         <v>134.9501552287107</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.7686448570675</v>
       </c>
       <c r="F16" t="n">
         <v>131.7557302334296</v>
       </c>
       <c r="G16" t="n">
-        <v>110.463170116321</v>
+        <v>152.3604904695266</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.68710262033642</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995355</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>38.81130843425817</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>38.81130843425839</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>38.8113084342585</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>38.8113084342595</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1138956.516248064</v>
+        <v>1138956.516248063</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075558</v>
       </c>
       <c r="E2" t="n">
-        <v>105919.4396974575</v>
+        <v>105919.4396974574</v>
       </c>
       <c r="F2" t="n">
         <v>105919.4396974574</v>
       </c>
       <c r="G2" t="n">
-        <v>122692.8584569375</v>
+        <v>122692.8584569374</v>
       </c>
       <c r="H2" t="n">
-        <v>122692.8584569375</v>
+        <v>122692.8584569374</v>
       </c>
       <c r="I2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796424</v>
@@ -26344,16 +26344,16 @@
         <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="N2" t="n">
         <v>123156.2654796423</v>
       </c>
-      <c r="N2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="O2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
     </row>
     <row r="3">
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701233404</v>
+        <v>2659.436701233434</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927983</v>
+        <v>12898.44302927977</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870621</v>
+        <v>29753.24015870616</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>23579.83155803485</v>
+        <v>23579.83155803483</v>
       </c>
       <c r="F4" t="n">
-        <v>23579.83155803485</v>
+        <v>23579.83155803483</v>
       </c>
       <c r="G4" t="n">
         <v>80290.36045306714</v>
       </c>
       <c r="H4" t="n">
-        <v>80290.36045306713</v>
+        <v>80290.36045306714</v>
       </c>
       <c r="I4" t="n">
-        <v>81477.1287695549</v>
+        <v>81477.12876955493</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883346</v>
       </c>
       <c r="K4" t="n">
         <v>78703.96570883348</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="M4" t="n">
+        <v>78703.96570883345</v>
+      </c>
+      <c r="N4" t="n">
         <v>78703.96570883348</v>
       </c>
-      <c r="N4" t="n">
-        <v>78703.96570883351</v>
-      </c>
       <c r="O4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883348</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263894</v>
+        <v>75455.17016263891</v>
       </c>
       <c r="F5" t="n">
         <v>75455.17016263891</v>
@@ -26488,25 +26488,25 @@
         <v>86921.42030325573</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.47213607446</v>
+        <v>87529.47213607447</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336259.2883585477</v>
+        <v>-336263.7019364159</v>
       </c>
       <c r="C6" t="n">
-        <v>-336259.2883585478</v>
+        <v>-336263.701936416</v>
       </c>
       <c r="D6" t="n">
-        <v>-336259.2883585477</v>
+        <v>-336263.7019364159</v>
       </c>
       <c r="E6" t="n">
-        <v>-1127815.870592681</v>
+        <v>-1128103.151022384</v>
       </c>
       <c r="F6" t="n">
-        <v>6884.437976783782</v>
+        <v>6597.157547080579</v>
       </c>
       <c r="G6" t="n">
-        <v>-115985.9334932708</v>
+        <v>-115993.6569436493</v>
       </c>
       <c r="H6" t="n">
-        <v>-44518.92229938541</v>
+        <v>-44526.64574976387</v>
       </c>
       <c r="I6" t="n">
-        <v>-48509.77212722023</v>
+        <v>-48509.77212722041</v>
       </c>
       <c r="J6" t="n">
-        <v>-57824.084933277</v>
+        <v>-57824.08493327699</v>
       </c>
       <c r="K6" t="n">
-        <v>-44925.64190399721</v>
+        <v>-44925.64190399714</v>
       </c>
       <c r="L6" t="n">
-        <v>-82505.75119887125</v>
+        <v>-82505.75119887121</v>
       </c>
       <c r="M6" t="n">
-        <v>-252114.2101960704</v>
+        <v>-252114.2101960701</v>
       </c>
       <c r="N6" t="n">
-        <v>-44925.64190399721</v>
+        <v>-44925.64190399728</v>
       </c>
       <c r="O6" t="n">
-        <v>-74678.88206270347</v>
+        <v>-74678.88206270344</v>
       </c>
       <c r="P6" t="n">
-        <v>-44925.64190399715</v>
+        <v>-44925.64190399727</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718381</v>
+        <v>955.037925471838</v>
       </c>
       <c r="H4" t="n">
         <v>955.037925471838</v>
       </c>
       <c r="I4" t="n">
-        <v>965.038777985304</v>
+        <v>965.0387779853041</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695455</v>
+        <v>123.6364700695453</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346604</v>
+        <v>10.00085251346616</v>
       </c>
       <c r="J4" t="n">
-        <v>49.2976832233104</v>
+        <v>49.29768322331017</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695456</v>
+        <v>123.6364700695453</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695455</v>
+        <v>123.6364700695453</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950168</v>
+        <v>13.66531778950166</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>31.43571863716667</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>60.64045440809423</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>31.43571863716687</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="21">
@@ -28956,46 +28956,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64045440809423</v>
+        <v>31.43571863716645</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>31.43571863716642</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="J25" t="n">
-        <v>60.64045440809423</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>31.4357186371663</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>31.43571863716642</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809423</v>
+        <v>60.64045440809424</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859188</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32558,10 +32558,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256791</v>
+        <v>59.24373440256788</v>
       </c>
       <c r="K13" t="n">
         <v>219.7129773338212</v>
@@ -35577,7 +35577,7 @@
         <v>361.2986971829855</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570418</v>
+        <v>358.5222639570417</v>
       </c>
       <c r="O13" t="n">
         <v>316.0184480121414</v>
@@ -35586,7 +35586,7 @@
         <v>248.6223889346121</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739534</v>
+        <v>92.05955632739531</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256791</v>
+        <v>59.24373440256788</v>
       </c>
       <c r="K16" t="n">
         <v>219.7129773338212</v>
@@ -35823,7 +35823,7 @@
         <v>248.6223889346121</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739534</v>
+        <v>92.05955632739531</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>955.0379254718381</v>
+        <v>955.037925471838</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35899,13 +35899,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>472.1956439238392</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>258.5115426352037</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>237.4833781814862</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,13 +36051,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>405.4974005756343</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>333.7888488598066</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532047</v>
       </c>
       <c r="Q19" t="n">
         <v>139.0346929459879</v>
@@ -36121,22 +36121,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>625.7354931173783</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>955.037925471838</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>564.1670409942853</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36206,10 +36206,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36279,19 +36279,19 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>266.6881139524138</v>
+        <v>237.483378181486</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>379.0690980306503</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>405.4974005756343</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>362.993584630734</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>419.2130634013527</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>965.0387779853041</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>288.1100253265732</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.2188710211605</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36525,13 +36525,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>376.2926648047064</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>333.7888488598062</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532047</v>
       </c>
       <c r="Q25" t="n">
         <v>139.0346929459879</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>577.7620011476542</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>573.2138996439273</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637023</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>389.3800369577341</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>882.4696444268562</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776173</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>675.7899675310547</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>573.4402312688252</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,10 +37324,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>263.4824740474644</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861327</v>
@@ -37546,22 +37546,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>676.875479966741</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>632.5715920432249</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37786,22 +37786,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>825.9229012776187</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>418.1651022448376</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
